--- a/Borrar_Items/ItemsBorrar.xlsx
+++ b/Borrar_Items/ItemsBorrar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fcolin\Documents\GitHub\Herramientas\Borrar_Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F286BD-46F4-4616-AEC5-A1292CF04F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4C7758-0794-49AB-AA0C-BCCB78D65E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -399,7 +399,7 @@
   <dimension ref="A1:A251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:A171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -414,1253 +414,1093 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
-        <v>2201725003</v>
+        <v>2211399012</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>2201796093</v>
+        <v>1912029047</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>2201796102</v>
+        <v>2210162076</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>2201853070</v>
+        <v>1908060102</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>2201915070</v>
+        <v>1908067028</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>2201928070</v>
+        <v>1908182072</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>2201935070</v>
+        <v>2110953094</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>2201938070</v>
+        <v>2114302006</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>2201940070</v>
+        <v>2115860005</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>2201989049</v>
+        <v>2109817032</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>2202072070</v>
+        <v>2109869007</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>2202208093</v>
+        <v>2112541040</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>2202419012</v>
+        <v>2210174012</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>2202468049</v>
+        <v>1807473070</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>2202479093</v>
+        <v>2209831042</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>2202622093</v>
+        <v>2206945021</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>2202646093</v>
+        <v>2207263070</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>2202656102</v>
+        <v>2207300032</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>2202663111</v>
+        <v>2207370006</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>2202702049</v>
+        <v>2207391028</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>2202833068</v>
+        <v>2207393006</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>2202926083</v>
+        <v>2207393070</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>2203038093</v>
+        <v>2207394076</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>2203064072</v>
+        <v>2207455006</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>2203240095</v>
+        <v>2207455070</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>2203287069</v>
+        <v>2207456006</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>2203505012</v>
+        <v>2207606038</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>2203506070</v>
+        <v>2207997038</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>2203507012</v>
+        <v>2208116006</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>2203507070</v>
+        <v>2208116070</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>2203511070</v>
+        <v>2209386076</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>2203517003</v>
+        <v>2209580070</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>2203517058</v>
+        <v>2209694028</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>2203517049</v>
+        <v>2210786070</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>2007944049</v>
+        <v>2209234064</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>2008214010</v>
+        <v>2209234070</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>2008430063</v>
+        <v>2209476028</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>2008430101</v>
+        <v>2210162076</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>2009039047</v>
+        <v>1610676102</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>2009463098</v>
+        <v>1610676095</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>2010219008</v>
+        <v>1610676080</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>2010219111</v>
+        <v>1610676006</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>2011314083</v>
+        <v>2007751093</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>2012298098</v>
+        <v>2007751102</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>2100423061</v>
+        <v>2007751059</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>2100423101</v>
+        <v>2203506049</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>2100787016</v>
+        <v>2203507095</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>2100876047</v>
+        <v>2203108076</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>2100876093</v>
+        <v>2205631014</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>2101111012</v>
+        <v>2205953106</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>2101111017</v>
+        <v>2203209049</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>2101111059</v>
+        <v>2204996069</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>2101111062</v>
+        <v>2206373095</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>2101111065</v>
+        <v>2204959031</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>2101111092</v>
+        <v>2203630076</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>2101111093</v>
+        <v>2203630076</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>2102104093</v>
+        <v>2202227102</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>2103208003</v>
+        <v>2202419012</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>2103208047</v>
+        <v>2203111111</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>2103208061</v>
+        <v>2203409098</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>2103208065</v>
+        <v>2200818076</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
-        <v>2103208072</v>
+        <v>2207484020</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>2103208095</v>
+        <v>2206141051</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>2103208102</v>
+        <v>2205835070</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>2103245068</v>
+        <v>2205801076</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>2103717063</v>
+        <v>2205954058</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>2103717085</v>
+        <v>2115515020</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>2104334012</v>
+        <v>2203480005</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>2104444049</v>
+        <v>2205436070</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>2104444096</v>
+        <v>2115515067</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>2104485030</v>
+        <v>2115629067</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <v>2104658021</v>
+        <v>2115629111</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>2104658022</v>
+        <v>2205680061</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>2104658021</v>
+        <v>2206125008</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>2104774049</v>
+        <v>2115713076</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <v>2104896070</v>
+        <v>2115501063</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
-        <v>2106255003</v>
+        <v>2203434111</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <v>2110766081</v>
+        <v>2203879058</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <v>2110766091</v>
+        <v>2203434020</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
-        <v>2112670030</v>
+        <v>2203452020</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
-        <v>2113638111</v>
+        <v>2108989111</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
-        <v>2113765071</v>
+        <v>2200450102</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
-        <v>2113767033</v>
+        <v>2204819028</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
-        <v>2114316064</v>
+        <v>2205306070</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
-        <v>2201585020</v>
+        <v>2203505093</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
-        <v>2205939033</v>
+        <v>2115254021</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
-        <v>2205955070</v>
+        <v>2204415025</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
-        <v>2205955076</v>
+        <v>2205892028</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
-        <v>2205994101</v>
+        <v>2107887068</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
-        <v>2206327113</v>
+        <v>2204954072</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
-        <v>2206335059</v>
+        <v>2204411025</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
-        <v>2206351047</v>
+        <v>2204811070</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
-        <v>2206351070</v>
+        <v>2204951002</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
-        <v>2206355093</v>
+        <v>2115611086</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
-        <v>2206358003</v>
+        <v>2115713076</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
-        <v>2206358012</v>
+        <v>2203879058</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
-        <v>2206359093</v>
+        <v>2115501063</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
-        <v>2206361070</v>
+        <v>2205442028</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
-        <v>2206361102</v>
+        <v>2115724021</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
-        <v>2206364058</v>
+        <v>2201679022</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
-        <v>2206467028</v>
+        <v>2203571012</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
-        <v>2206471028</v>
+        <v>2115722025</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
-        <v>2206680070</v>
+        <v>2115196060</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
-        <v>2206680102</v>
+        <v>2203470075</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
-        <v>2206755093</v>
+        <v>2204133098</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
-        <v>2206809028</v>
+        <v>2007804063</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
-        <v>2206809070</v>
+        <v>2204993028</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
-        <v>2206826070</v>
+        <v>2111338094</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
-        <v>2206875070</v>
+        <v>2203626049</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
-        <v>2206895051</v>
+        <v>2205326068</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
-        <v>2206920051</v>
+        <v>2205802111</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
-        <v>2206930051</v>
+        <v>2205790108</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
-        <v>2207276031</v>
+        <v>2206056028</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
-        <v>2207302102</v>
+        <v>2202354063</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
-        <v>2207319028</v>
+        <v>2205142076</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
-        <v>2207339070</v>
+        <v>2201364065</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
-        <v>2207360108</v>
+        <v>2201364093</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
-        <v>2207424028</v>
+        <v>2205797102</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
-        <v>2207482063</v>
+        <v>2205806070</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
-        <v>2207486070</v>
+        <v>2207313067</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
-        <v>2207487065</v>
+        <v>2206364058</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
-        <v>2004653060</v>
+        <v>2206364070</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
-        <v>2004653065</v>
+        <v>2206364065</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
-        <v>2006700020</v>
+        <v>2206364102</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
-        <v>2006700100</v>
+        <v>2205996020</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
-        <v>2006836095</v>
+        <v>2202795030</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
-        <v>2006836102</v>
+        <v>2201689068</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
-        <v>2007193030</v>
+        <v>2202015032</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
-        <v>2206467028</v>
+        <v>1610676006</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
-        <v>2206471028</v>
+        <v>1610676102</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A132" s="3">
-        <v>2206680070</v>
+        <v>2007751093</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A133" s="3">
-        <v>2206680102</v>
+        <v>2203626049</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134" s="3">
-        <v>2206755093</v>
+        <v>2115200025</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A135" s="3">
-        <v>2206809028</v>
+        <v>2115808026</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A136" s="3">
-        <v>2206809070</v>
+        <v>2115800026</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A137" s="3">
-        <v>2206826070</v>
+        <v>1801523017</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A138" s="3">
-        <v>2206875070</v>
+        <v>1906356070</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A139" s="3">
-        <v>2206895051</v>
+        <v>2007921087</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A140" s="3">
-        <v>2206920051</v>
+        <v>2107799038</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A141" s="3">
-        <v>2206930051</v>
+        <v>2203342034</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A142" s="3">
-        <v>2207276031</v>
+        <v>2204227005</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A143" s="3">
-        <v>2207302102</v>
+        <v>2204331012</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A144" s="3">
-        <v>2207319028</v>
+        <v>2204348069</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A145" s="3">
-        <v>2207339070</v>
+        <v>2204364093</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A146" s="3">
-        <v>2207360108</v>
+        <v>2204961070</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A147" s="3">
-        <v>2207424028</v>
+        <v>2205034006</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A148" s="3">
-        <v>2207482063</v>
+        <v>2205167051</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A149" s="3">
-        <v>2207486070</v>
+        <v>2205178049</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A150" s="3">
-        <v>2207487065</v>
+        <v>2205250070</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A151" s="3">
-        <v>2004653060</v>
+        <v>2205250093</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A152" s="3">
-        <v>2004653065</v>
+        <v>2205254012</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A153" s="3">
-        <v>2006700020</v>
+        <v>2205428028</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A154" s="3">
-        <v>2006700100</v>
+        <v>2206917069</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A155" s="3">
-        <v>2006836095</v>
+        <v>2206919018</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A156" s="3">
-        <v>2006836102</v>
+        <v>2209253093</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A157" s="3">
-        <v>2007193030</v>
+        <v>2209257028</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A158" s="4">
-        <v>2204020101</v>
+        <v>2209280070</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A159" s="4">
-        <v>2204863063</v>
+        <v>2209295102</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A160" s="4">
-        <v>2204893017</v>
+        <v>2209456006</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A161" s="4">
-        <v>2204914070</v>
+        <v>2209457070</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A162" s="4">
-        <v>2204925093</v>
+        <v>2209869093</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A163" s="5">
-        <v>2114025049</v>
+        <v>2209874012</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A164" s="5">
-        <v>2114029093</v>
+        <v>2209947086</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A165" s="5">
-        <v>2114035093</v>
+        <v>2210040094</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A166" s="5">
-        <v>2114285051</v>
+        <v>2210636003</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A167" s="5">
-        <v>2114299028</v>
+        <v>1707298059</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A168" s="5">
-        <v>2114300095</v>
+        <v>2206933112</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A169" s="5">
-        <v>2114373093</v>
+        <v>2210303070</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A170" s="5">
-        <v>2114821049</v>
+        <v>2210568070</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A171" s="5">
-        <v>2114822047</v>
+        <v>2207442028</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A172" s="6">
-        <v>2201599101</v>
-      </c>
+      <c r="A172" s="6"/>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A173" s="6">
-        <v>2204130076</v>
-      </c>
+      <c r="A173" s="6"/>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A174" s="6">
-        <v>2204132076</v>
-      </c>
+      <c r="A174" s="6"/>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A175" s="6">
-        <v>2204252070</v>
-      </c>
+      <c r="A175" s="6"/>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A176" s="6">
-        <v>2001866005</v>
-      </c>
+      <c r="A176" s="6"/>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A177" s="7">
-        <v>2115059070</v>
-      </c>
+      <c r="A177" s="7"/>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A178" s="7">
-        <v>2115060103</v>
-      </c>
+      <c r="A178" s="7"/>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A179" s="7">
-        <v>2115070098</v>
-      </c>
+      <c r="A179" s="7"/>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A180" s="7">
-        <v>2115073042</v>
-      </c>
+      <c r="A180" s="7"/>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A181" s="7">
-        <v>2115075008</v>
-      </c>
+      <c r="A181" s="7"/>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A182" s="7">
-        <v>2115082051</v>
-      </c>
+      <c r="A182" s="7"/>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A183" s="7">
-        <v>2115085049</v>
-      </c>
+      <c r="A183" s="7"/>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A184" s="7">
-        <v>2115088070</v>
-      </c>
+      <c r="A184" s="7"/>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A185" s="7">
-        <v>2115093042</v>
-      </c>
+      <c r="A185" s="7"/>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A186" s="7">
-        <v>2115124106</v>
-      </c>
+      <c r="A186" s="7"/>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A187" s="7">
-        <v>2115126049</v>
-      </c>
+      <c r="A187" s="7"/>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A188" s="7">
-        <v>2115129051</v>
-      </c>
+      <c r="A188" s="7"/>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A189" s="7">
-        <v>2200048083</v>
-      </c>
+      <c r="A189" s="7"/>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A190" s="7">
-        <v>2200048088</v>
-      </c>
+      <c r="A190" s="7"/>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A191" s="7">
-        <v>2200048109</v>
-      </c>
+      <c r="A191" s="7"/>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A192" s="7">
-        <v>2200730076</v>
-      </c>
+      <c r="A192" s="7"/>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A193" s="7">
-        <v>2200880076</v>
-      </c>
+      <c r="A193" s="7"/>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A194" s="7">
-        <v>2201319094</v>
-      </c>
+      <c r="A194" s="7"/>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A195" s="7">
-        <v>2201411028</v>
-      </c>
+      <c r="A195" s="7"/>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A196" s="7">
-        <v>2201467028</v>
-      </c>
+      <c r="A196" s="7"/>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A197" s="7">
-        <v>2201536102</v>
-      </c>
+      <c r="A197" s="7"/>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A198" s="7">
-        <v>2201570095</v>
-      </c>
+      <c r="A198" s="7"/>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A199" s="8">
-        <v>2114828028</v>
-      </c>
+      <c r="A199" s="8"/>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A200" s="8">
-        <v>2114842058</v>
-      </c>
+      <c r="A200" s="8"/>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A201" s="8">
-        <v>2114842070</v>
-      </c>
+      <c r="A201" s="8"/>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A202" s="8">
-        <v>2114844058</v>
-      </c>
+      <c r="A202" s="8"/>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A203" s="8">
-        <v>2114859093</v>
-      </c>
+      <c r="A203" s="8"/>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A204" s="8">
-        <v>2114863083</v>
-      </c>
+      <c r="A204" s="8"/>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A205" s="8">
-        <v>2114869051</v>
-      </c>
+      <c r="A205" s="8"/>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A206" s="8">
-        <v>2114964028</v>
-      </c>
+      <c r="A206" s="8"/>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A207" s="9">
-        <v>1706934093</v>
-      </c>
+      <c r="A207" s="9"/>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A208" s="5">
-        <v>1906383017</v>
-      </c>
+      <c r="A208" s="5"/>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A209" s="5">
-        <v>1906383058</v>
-      </c>
+      <c r="A209" s="5"/>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A210" s="5">
-        <v>1906383065</v>
-      </c>
+      <c r="A210" s="5"/>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A211" s="5">
-        <v>1906383094</v>
-      </c>
+      <c r="A211" s="5"/>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A212" s="5">
-        <v>2006700047</v>
-      </c>
+      <c r="A212" s="5"/>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A213" s="5">
-        <v>2006711012</v>
-      </c>
+      <c r="A213" s="5"/>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A214" s="5">
-        <v>2007597028</v>
-      </c>
+      <c r="A214" s="5"/>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A215" s="5">
-        <v>2102415012</v>
-      </c>
+      <c r="A215" s="5"/>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A216" s="5">
-        <v>2105681100</v>
-      </c>
+      <c r="A216" s="5"/>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A217" s="5">
-        <v>2108989111</v>
-      </c>
+      <c r="A217" s="5"/>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A218" s="5">
-        <v>2111786058</v>
-      </c>
+      <c r="A218" s="5"/>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A219" s="5">
-        <v>2111844102</v>
-      </c>
+      <c r="A219" s="5"/>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A220" s="5">
-        <v>2112748028</v>
-      </c>
+      <c r="A220" s="5"/>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A221" s="5">
-        <v>2112769012</v>
-      </c>
+      <c r="A221" s="5"/>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A222" s="9">
-        <v>2113123030</v>
-      </c>
+      <c r="A222" s="9"/>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A223" s="10">
-        <v>2113006102</v>
-      </c>
+      <c r="A223" s="10"/>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A224" s="10">
-        <v>2113009038</v>
-      </c>
+      <c r="A224" s="10"/>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A225" s="10">
-        <v>2113356003</v>
-      </c>
+      <c r="A225" s="10"/>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A226" s="5">
-        <v>2211147020</v>
-      </c>
+      <c r="A226" s="5"/>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A227" s="5">
-        <v>2211147076</v>
-      </c>
+      <c r="A227" s="5"/>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A228" s="5">
-        <v>2211149076</v>
-      </c>
+      <c r="A228" s="5"/>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A229" s="5">
-        <v>2211149098</v>
-      </c>
+      <c r="A229" s="5"/>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A230" s="5">
-        <v>2211232070</v>
-      </c>
+      <c r="A230" s="5"/>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A231" s="5">
-        <v>2211288032</v>
-      </c>
+      <c r="A231" s="5"/>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A232" s="5">
-        <v>2211292076</v>
-      </c>
+      <c r="A232" s="5"/>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A233" s="5">
-        <v>2211320076</v>
-      </c>
+      <c r="A233" s="5"/>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A234" s="5">
-        <v>2211332090</v>
-      </c>
+      <c r="A234" s="5"/>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A235" s="5">
-        <v>2211334007</v>
-      </c>
+      <c r="A235" s="5"/>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A236" s="5">
-        <v>2211335007</v>
-      </c>
+      <c r="A236" s="5"/>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A237" s="5">
-        <v>2211343016</v>
-      </c>
+      <c r="A237" s="5"/>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A238" s="5">
-        <v>2211354076</v>
-      </c>
+      <c r="A238" s="5"/>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A239" s="5">
-        <v>2211362047</v>
-      </c>
+      <c r="A239" s="5"/>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A240" s="5">
-        <v>2211367070</v>
-      </c>
+      <c r="A240" s="5"/>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A241" s="5">
-        <v>2211367083</v>
-      </c>
+      <c r="A241" s="5"/>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A242" s="5">
-        <v>2211410038</v>
-      </c>
+      <c r="A242" s="5"/>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A243" s="5">
-        <v>2211412070</v>
-      </c>
+      <c r="A243" s="5"/>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A244" s="5">
-        <v>2211425018</v>
-      </c>
+      <c r="A244" s="5"/>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A245" s="5">
-        <v>2211478039</v>
-      </c>
+      <c r="A245" s="5"/>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A246" s="5">
-        <v>2211485028</v>
-      </c>
+      <c r="A246" s="5"/>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A247" s="5">
-        <v>2211486049</v>
-      </c>
+      <c r="A247" s="5"/>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A248" s="5">
-        <v>2211490070</v>
-      </c>
+      <c r="A248" s="5"/>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A249" s="5">
-        <v>2211738070</v>
-      </c>
+      <c r="A249" s="5"/>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A250" s="5">
-        <v>2211839049</v>
-      </c>
+      <c r="A250" s="5"/>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A251" s="5">
-        <v>2211844070</v>
-      </c>
+      <c r="A251" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
